--- a/export.xlsx
+++ b/export.xlsx
@@ -436,6 +436,7 @@
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>

--- a/export.xlsx
+++ b/export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>stance(n.)立場</t>
+          <t>accountability(n.)問責</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>content(v.)滿足</t>
+          <t>administer(v.)掌管</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>regard to 考慮到 衍：delve into = research on研究</t>
+          <t>a great amount of N.[U]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -547,22 +547,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>contentment(n.)滿足</t>
+          <t>advocacy(n.)提倡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>revise(v.)修正 衍：amend, correct, modify</t>
+          <t>charge(v.)指控</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>grim(adj.)悲觀的 = pessimistic</t>
+          <t>adjacent(adj.)鄰近的</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>unanimously(adv.)一致的</t>
+          <t>ironically(adv.)諷刺地</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,17 +579,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>credit(n.)學分[C]；讚許，賒帳[U]</t>
+          <t>agility(n.)敏捷</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stagger(v.)步履蹣跚</t>
+          <t>coin(v.)創造</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>wary(adj.)謹慎的 = careful</t>
+          <t>ample(adj.)大量或更多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -604,29 +604,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>give sb. credit for sth. 因…給…讚許</t>
+          <t>be comprised of = be made of</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>union(n.)工會，聯盟 衍：combination</t>
+          <t>amateur(n.)素人</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>yield(v.)產生；讓步</t>
+          <t>consummate(adj.)完美的 (v.)完善</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>grueling(adj.)令人疲累的</t>
+          <t>authentic(adj.)道地的</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ironically(adv.)諷刺地</t>
+          <t>unanimously(adv.)一致的</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>confess to N./Ving = admit = candid = own up 坦白</t>
+          <t>be devoid of = be lack of</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>resort(v.)採取(n.)度假勝地</t>
+          <t>antics(n.)滑稽</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dub(v.)稱…為</t>
+          <t>content(v.)滿足</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>concentrated(adj.)密集的</t>
+          <t>benign(adj.)和善的</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,24 +663,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>resort to N./Ving = take action</t>
+          <t>be justified to Ving = 做…是合理的</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vain(adj.)虛榮的 (n.)空虛</t>
+          <t>asset(n.)有價值的東西</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>maneuver(v.)滑順華麗的操作</t>
+          <t>cultivate(v.)栽培；種植</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>benign(adj.)和善的</t>
+          <t>concentrated(adj.)密集的</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -690,14 +690,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>stagger from A to B</t>
+          <t>be subject to = 受…的控制</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>accountability(n.)問責</t>
+          <t>atrocity(n.)暴行</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>yield to = concede to = make concession to = give in to</t>
+          <t>confess to N./Ving = admit = candid = own up 坦白</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>growth(n.)腫瘤</t>
+          <t>brochure(n.)手冊</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>consummate(adj.)完美的 (v.)完善</t>
+          <t>deter(v.)威嚇</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>authentic(adj.)道地的</t>
+          <t>deficient(adj.)不足的</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -744,24 +744,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>be justified to Ving = 做…是合理的</t>
+          <t>deprive from 被剝奪</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>leverage(n.)力量</t>
+          <t>column(n.)專欄</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>empower(v.)授權</t>
+          <t>dub(v.)稱…為</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>monetary(adj.)和錢相關的</t>
+          <t>evident(adj.)明顯的</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>a great amount of N.[U]</t>
+          <t>endow with 被賦予</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>exploit(v.)剝削</t>
+          <t>dull(v.)使失去…</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>imperative(adj.)極為重要的</t>
+          <t>grim(adj.)悲觀的 = pessimistic</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -798,24 +798,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>be subject to = 受…的控制</t>
+          <t>engage in sth.從事</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>offspring(n.)後代</t>
+          <t>consistency(n.)一致性；質地</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>deter(v.)威嚇</t>
+          <t>empower(v.)授權</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>notorious(adj.)臭名昭著</t>
+          <t>grueling(adj.)令人疲累的</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -825,24 +825,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>be comprised of = be made of</t>
+          <t>engage in 從事</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dispute(n.)紛爭</t>
+          <t>contentment(n.)滿足</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dull(v.)使失去…</t>
+          <t>entitle(v.)賦予</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>imposing(adj.)驚人的</t>
+          <t>imperative(adj.)極為重要的</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -852,51 +852,46 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>be devoid of = be lack of</t>
+          <t xml:space="preserve">from the cradle to the grave=lifetime </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tradeoff(n.)妥協</t>
+          <t>coriander(n.)香草</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>resonate(v.)引起共鳴</t>
+          <t>exploit(v.)剝削</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>robust(adj.)強壯健康的；富有味道的</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>atrocity (n.)暴行</t>
+          <t>imposing(adj.)驚人的</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>engage in sth.從事</t>
+          <t>give sb. credit for sth. 因…給…讚許</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>asset(n.)有價值的東西</t>
+          <t>cradle(n.)搖籃</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>illuminate(v.)照亮</t>
+          <t>hone(v.)磨練</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ample(adj.)大量或更多</t>
+          <t>impulsive(adj.)衝動的</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -908,17 +903,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tactic(n.)手法</t>
+          <t>credit(n.)學分[C]；讚許，賒帳[U]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pierce(v.)穿刺進</t>
+          <t>illuminate(v.)照亮</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>prone(adj.)傾向</t>
+          <t>intricate(adj.)錯綜複雜的</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -935,12 +930,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>oblige(v.)有義務+to</t>
+          <t>indulge(v.)放縱</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tempting(adj.)誘人的</t>
+          <t>irresistible(adj.)不可抗拒的</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -952,122 +947,122 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gland(n.)腺體</t>
+          <t>cumin(n.)孜然</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>entitle(v.)賦予</t>
+          <t>insert(v.)放</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>irresistible(adj.)不可抗拒的</t>
+          <t>monetary(adj.)和錢相關的</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>to sum up 總結</t>
+          <t>regard to 考慮到 衍：delve into = research on研究</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pigment(n.)天然染色劑</t>
+          <t>demonstration(n.)示範</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>splurge(v.)揮霍、大津花費</t>
+          <t>integrate(v.)融入</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>impulsive(adj.)衝動的</t>
+          <t>neutral(adj.)中立的</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>engage in 從事</t>
+          <t>release from hospital 出院</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hue(n.)色調</t>
+          <t>deposit(n.)存款</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>indulge(v.)放縱</t>
+          <t>maneuver(v.)滑順華麗的操作</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adjacent(adj.)鄰近的</t>
+          <t>notorious(adj.)臭名昭著</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>turn the other cheek轉過臉頰=忍耐包容</t>
+          <t>resort to N./Ving = take action</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>medium(n.)媒介 = agent</t>
+          <t>dilemma(n.)困境</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>insert(v.)放</t>
+          <t>oblige(v.)有義務+to</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>deficient(adj.)不足的</t>
+          <t>prone(adj.)傾向</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>release from hospital 出院</t>
+          <t>stagger from A to B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>synthetic(n.)人造模仿天然物</t>
+          <t>disdain(n.)鄙視</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cultivate(v.)栽培；種植</t>
+          <t>perplex(v.)困惑</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>evident(adj.)明顯的</t>
+          <t>robust(adj.)強壯健康的；富有味道的</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>deprive from 被剝奪</t>
+          <t>to sum up 總結</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>resin(n.)樹脂</t>
+          <t>dispute(n.)紛爭</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>charge(v.)指控</t>
+          <t>pierce(v.)穿刺進</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1077,358 +1072,365 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>endow with 被賦予</t>
+          <t>turn the other cheek轉過臉頰=忍耐包容</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reservoir(n.)水庫</t>
+          <t>excerpt(n.)摘錄片段</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specify(v.)指明</t>
+          <t>resonate(v.)引起共鳴</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>neutral(adj.)中立的</t>
+          <t>tempting(adj.)誘人的</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">from the cradle to the grave=lifetime </t>
+          <t>yield to = concede to = make concession to = give in to</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sanctuary(n.)避難所</t>
+          <t>fare(n.)票價</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>perplex(v.)困惑</t>
+          <t>revise(v.)修正 衍：amend, correct, modify</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>intricate(adj.)錯綜複雜的</t>
+          <t>wary(adj.)謹慎的 = careful</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>splinter(n.)尖碎片</t>
+          <t>foible(n.)怪癖</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>integrate(v.)融入</t>
+          <t>specify(v.)指明</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>coriander(n.)香草</t>
+          <t>furniture(n.)家具</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>unveil(v.)告訴</t>
+          <t>splurge(v.)揮霍、大津花費</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cumin(n.)孜然</t>
+          <t>gland(n.)腺體</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>hone(v.)磨練</t>
+          <t>stagger(v.)步履蹣跚</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>turmeric(n.)薑黃</t>
+          <t>grave(n.)墳墓</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>coin(v.)創造</t>
+          <t>unveil(v.)告訴</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>stew(n.)燉肉</t>
+          <t>growth(n.)腫瘤</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>administer(v.)掌管</t>
+          <t>yield(v.)產生；讓步</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>trio(n.)三個人或三件事</t>
+          <t>guests(n.)賓客</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>consistency(n.)一致性；質地</t>
+          <t>hue(n.)色調</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>guests(n.)賓客</t>
+          <t>indicator(n.)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>antics(n.)滑稽</t>
+          <t>infancy(n.)起步階段</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>temptation(n.)誘惑</t>
+          <t>leverage(n.)力量</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>regret(n.)後悔</t>
+          <t>medallion(n.)獎牌；紀念章</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ultimatum(n.)最後通牒</t>
+          <t>medium(n.)媒介 = agent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wharf(n.)碼頭</t>
+          <t>offspring(n.)後代</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>yacht(n.)遊艇</t>
+          <t>pabulum(n.)精神糧食</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pabulum(n.)精神糧食</t>
+          <t>pigment(n.)天然染色劑</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>foible(n.)怪癖</t>
+          <t>plight(n.)困境</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>furniture(n.)家具</t>
+          <t>plot(n.)情節</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>demonstration(n.)示範</t>
+          <t>punctuation(n.)標點符號</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>deposit(n.)存款</t>
+          <t>regime(n.)政權</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dilemma(n.)困境</t>
+          <t>regret(n.)後悔</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>disdain(n.)鄙視</t>
+          <t>reservoir(n.)水庫</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sentiment(n.)感傷</t>
+          <t>resin(n.)樹脂</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>punctuation(n.)標點符號</t>
+          <t>resort(v.)採取(n.)度假勝地</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>brochure(n.)手冊</t>
+          <t>sanctuary(n.)避難所</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>uproar(n.)反對聲浪</t>
+          <t>script(n.)劇本</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>amateur(n.)素人</t>
+          <t>sentiment(n.)感傷</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>agility(n.)敏捷</t>
+          <t>splinter(n.)尖碎片</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>plot(n.)情節</t>
+          <t>stance(n.)立場</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>regime(n.)政權</t>
+          <t>stew(n.)燉肉</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>plight(n.)困境</t>
+          <t>synthetic(n.)人造模仿天然物</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>visa(n.)簽證</t>
+          <t>tactic(n.)手法</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>indicator(n.)</t>
+          <t>temptation(n.)誘惑</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cradle(n.)搖籃</t>
+          <t>tradeoff(n.)妥協</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>grave(n.)墳墓</t>
+          <t>trio(n.)三個人或三件事</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>advocacy(n.)提倡</t>
+          <t>turmeric(n.)薑黃</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>script(n.)劇本</t>
+          <t>ultimatum(n.)最後通牒</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>column(n.)專欄</t>
+          <t>union(n.)工會，聯盟 衍：combination</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>excerpt(n.)摘錄片段</t>
+          <t>uproar(n.)反對聲浪</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>medallion(n.)獎牌；紀念章</t>
+          <t>vain(adj.)虛榮的 (n.)空虛</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>fare(n.)票價</t>
+          <t>visa(n.)簽證</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>infancy(n.)起步階段</t>
+          <t>wharf(n.)碼頭</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>yacht(n.)遊艇</t>
         </is>
       </c>
     </row>
